--- a/comparison ml models (2) (1).xlsx
+++ b/comparison ml models (2) (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhuvinay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DD2E49-24BC-49CD-BD0C-7C73BBD24670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11ACC854-A9F9-4DFD-A752-59AB5FB85A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5093DB69-CDA4-4BB8-B23D-43CFF933E01F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5093DB69-CDA4-4BB8-B23D-43CFF933E01F}"/>
   </bookViews>
   <sheets>
     <sheet name="With out Hypertuning" sheetId="2" r:id="rId1"/>
@@ -682,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A247D581-7BED-43D4-9389-01EE816E849E}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22:O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,8 +1496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E487EACA-F93D-40A5-9042-AAD844FEC004}">
   <dimension ref="A1:AC119"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="I91" workbookViewId="0">
-      <selection activeCell="R114" sqref="R114:V114"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I61" workbookViewId="0">
+      <selection activeCell="W73" sqref="W73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6202,13 +6202,13 @@
         <v>0.97922773109243699</v>
       </c>
       <c r="S77" s="14">
-        <v>0.93737060041407805</v>
+        <v>0.97470600414078001</v>
       </c>
       <c r="T77" s="14">
         <v>0.98333333333333295</v>
       </c>
       <c r="U77" s="14">
-        <v>0.95</v>
+        <v>0.95669999999999999</v>
       </c>
       <c r="V77" s="14">
         <v>0.98863636363636298</v>
